--- a/ITcoach/company_data/comparison table.xlsx
+++ b/ITcoach/company_data/comparison table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pyprogram\ITcoach\company_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\python\ITcoach\company_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821950CE-0572-4EF0-9AA5-C620BEABD67C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563C72A2-4C14-415A-8125-5314D16A5E3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{988050B8-F5E8-4881-99EC-84AB53EBA420}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{988050B8-F5E8-4881-99EC-84AB53EBA420}"/>
   </bookViews>
   <sheets>
     <sheet name="成品整机机架对照表" sheetId="1" r:id="rId1"/>
@@ -2976,10 +2976,10 @@
   <dimension ref="A1:K184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B54" sqref="B54"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
